--- a/teste.xlsx
+++ b/teste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diullio.santos\Documents\GiT\mentoria-ia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476A6F0A-9154-4C53-9BF3-68D9E08125A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55046CB6-2290-466E-8D02-D649DCD60BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="-120" windowWidth="27990" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="3270" windowWidth="14670" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,37 +25,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Padrao</t>
-  </si>
-  <si>
-    <t>Lote</t>
-  </si>
-  <si>
-    <t>Validade</t>
-  </si>
-  <si>
-    <t>Estoque</t>
-  </si>
-  <si>
-    <t>Dipirona</t>
-  </si>
-  <si>
-    <t>Cafeina</t>
-  </si>
-  <si>
-    <t>Paracetamol</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+  <si>
+    <t>nome_material</t>
+  </si>
+  <si>
+    <t>lote</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <t>unidade</t>
+  </si>
+  <si>
+    <t>solicitante</t>
+  </si>
+  <si>
+    <t>validade</t>
+  </si>
+  <si>
+    <t>tipo_material</t>
+  </si>
+  <si>
+    <t>blister</t>
+  </si>
+  <si>
+    <t>caixa</t>
+  </si>
+  <si>
+    <t>acetonitrila</t>
+  </si>
+  <si>
+    <t>metanol</t>
+  </si>
+  <si>
+    <t>padrao</t>
+  </si>
+  <si>
+    <t>15B25</t>
+  </si>
+  <si>
+    <t>15B26</t>
+  </si>
+  <si>
+    <t>15B27</t>
+  </si>
+  <si>
+    <t>15B28</t>
+  </si>
+  <si>
+    <t>15B29</t>
+  </si>
+  <si>
+    <t>cx</t>
+  </si>
+  <si>
+    <t>frasco</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>Diullio</t>
+  </si>
+  <si>
+    <t>Luiz Gustavo</t>
+  </si>
+  <si>
+    <t>Luis Fernando</t>
+  </si>
+  <si>
+    <t>Joao</t>
+  </si>
+  <si>
+    <t>reagente</t>
+  </si>
+  <si>
+    <t>material</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,9 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,74 +428,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>12345</v>
-      </c>
-      <c r="C2" s="1">
-        <v>46023</v>
-      </c>
-      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>46054</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>5648</v>
-      </c>
-      <c r="C3" s="1">
-        <v>47599</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>46055</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>54668</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45292</v>
-      </c>
-      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>46056</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>46057</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
+        <v>46058</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>